--- a/TDS.xlsx
+++ b/TDS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Description</t>
   </si>
@@ -133,6 +133,24 @@
     <t xml:space="preserve">One player can not play two turns in a row</t>
   </si>
   <si>
+    <t xml:space="preserve">Tested through actual gameplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game ends when user has not cards in hand and deck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn end when user types in end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player takes damage when 'take' is typed in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player negates damage if choice to play defence card is made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player negates damage if choice to play match attack power is made</t>
+  </si>
+  <si>
     <t>CARDS</t>
   </si>
   <si>
@@ -152,7 +170,7 @@
   <fonts count="6">
     <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -161,7 +179,6 @@
     </font>
     <font>
       <sz val="11.000000"/>
-      <color indexed="64"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -173,13 +190,11 @@
     <font>
       <b/>
       <sz val="11.000000"/>
-      <color indexed="64"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
       <sz val="10.000000"/>
-      <color indexed="64"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -258,15 +273,14 @@
       <alignment wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
@@ -758,7 +772,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" style="1" width="142.57421875"/>
     <col customWidth="1" min="2" max="2" style="1" width="16.629999999999999"/>
-    <col customWidth="1" min="3" max="3" style="0" width="54.7109375"/>
+    <col customWidth="1" min="3" max="3" style="0" width="60.421875"/>
     <col customWidth="1" min="4" max="6" style="2" width="12.630000000000001"/>
     <col customWidth="1" min="7" max="7" style="3" width="44"/>
     <col customWidth="1" min="8" max="1025" style="0" width="12.630000000000001"/>
@@ -836,7 +850,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="1" t="s">
@@ -845,7 +859,6 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -868,7 +881,6 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -880,7 +892,6 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -892,7 +903,6 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -904,7 +914,7 @@
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="5"/>
@@ -927,7 +937,6 @@
         <v>20</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -937,7 +946,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="5"/>
@@ -1053,7 +1062,7 @@
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -1108,7 +1117,7 @@
       <c r="F31" s="5"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="1"/>
@@ -1120,7 +1129,9 @@
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -1129,61 +1140,82 @@
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="B35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="11"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="B36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="1"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="1" t="s">
-        <v>41</v>
+      <c r="A39" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -1759,25 +1791,43 @@
       <c r="F135" s="5"/>
     </row>
     <row r="136" ht="13.800000000000001">
+      <c r="A136" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="B136" s="1"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
     </row>
     <row r="137" ht="13.800000000000001">
-      <c r="B137" s="1"/>
+      <c r="A137" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
     </row>
     <row r="138" ht="13.800000000000001">
-      <c r="B138" s="1"/>
+      <c r="A138" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
     </row>
     <row r="139" ht="13.800000000000001">
-      <c r="B139" s="1"/>
+      <c r="A139" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -6108,14 +6158,14 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00F40043-0076-4617-B04B-00C800DB00A3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00BB009B-00C6-41FD-81E8-006C00B90035}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Passed,In Progress,Failed"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B3:B4 B16:B17 B21:B147</xm:sqref>
+          <xm:sqref>B3:B4 B16:B17 B21:B36 B41:B135 B136:B139 B140:B147</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
